--- a/Data/meter_id/Rangkuman_Konsumsi_Energi_Gedung.xlsx
+++ b/Data/meter_id/Rangkuman_Konsumsi_Energi_Gedung.xlsx
@@ -1123,7 +1123,7 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>SBM</t>
+          <t>SBM MBA</t>
         </is>
       </c>
       <c r="B32" t="n">
